--- a/data/outputs/OR_altmetric/56.xlsx
+++ b/data/outputs/OR_altmetric/56.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE49"/>
+  <dimension ref="A1:CF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2039,6 +2056,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2280,6 +2300,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2529,6 +2552,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2778,6 +2804,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3023,6 +3052,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3272,6 +3304,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3529,6 +3564,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3776,6 +3814,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4019,6 +4060,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4268,6 +4312,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4513,6 +4560,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4760,6 +4810,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5003,6 +5056,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5244,6 +5300,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5493,6 +5552,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5752,6 +5814,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5999,6 +6064,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6242,6 +6310,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6491,6 +6562,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6740,6 +6814,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6987,6 +7064,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7230,6 +7310,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7483,6 +7566,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7738,6 +7824,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7981,6 +8070,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8222,6 +8314,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8463,6 +8558,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8704,6 +8802,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8967,6 +9068,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9226,6 +9330,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9473,6 +9580,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9716,6 +9826,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9957,6 +10070,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10204,6 +10320,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10447,6 +10566,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10688,6 +10810,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10927,6 +11052,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11178,6 +11306,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11425,6 +11556,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11668,6 +11802,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11927,6 +12064,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12184,6 +12324,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12419,6 +12562,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12660,6 +12806,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
